--- a/FlOpEDT/misc/deploy_database/database_file_iut.xlsx
+++ b/FlOpEDT/misc/deploy_database/database_file_iut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="426">
   <si>
     <t xml:space="preserve">Liste intervenants</t>
   </si>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Amélie</t>
   </si>
   <si>
-    <t xml:space="preserve">LEGRAND</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Permanent</t>
   </si>
   <si>
-    <t xml:space="preserve">amelie.legrand@univ-tlse2.fr</t>
+    <t xml:space="preserve">mon_mail@mail.mail</t>
   </si>
   <si>
     <t xml:space="preserve">AB</t>
@@ -78,15 +78,9 @@
     <t xml:space="preserve">Aniéla</t>
   </si>
   <si>
-    <t xml:space="preserve">BASTIDE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vacataire</t>
   </si>
   <si>
-    <t xml:space="preserve">aniela.bastide@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salarié</t>
   </si>
   <si>
@@ -99,652 +93,316 @@
     <t xml:space="preserve">LANSONNEUR</t>
   </si>
   <si>
-    <t xml:space="preserve">Anne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al.coachingpro@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">AP</t>
   </si>
   <si>
     <t xml:space="preserve">André</t>
   </si>
   <si>
-    <t xml:space="preserve">PENINOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andre.peninou@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCL</t>
   </si>
   <si>
     <t xml:space="preserve">Céline</t>
   </si>
   <si>
-    <t xml:space="preserve">CLASSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">celine.classe@akka.eu</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDE</t>
   </si>
   <si>
     <t xml:space="preserve">Christophe</t>
   </si>
   <si>
-    <t xml:space="preserve">DELAGARDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdelagarde.professionnal@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDU</t>
   </si>
   <si>
     <t xml:space="preserve">Cédric</t>
   </si>
   <si>
-    <t xml:space="preserve">DUTOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedric.dutour@yahoo.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLA</t>
   </si>
   <si>
     <t xml:space="preserve">Carole</t>
   </si>
   <si>
-    <t xml:space="preserve">Lauby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carole.lauby@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">CMG</t>
   </si>
   <si>
     <t xml:space="preserve">Christine</t>
   </si>
   <si>
-    <t xml:space="preserve">MORAND-GUIBERT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.morand.guibert@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA</t>
   </si>
   <si>
     <t xml:space="preserve">Evelyne</t>
   </si>
   <si>
-    <t xml:space="preserve">ARMSTRONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evelyne.armstrong@univ-perp.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">EP</t>
   </si>
   <si>
     <t xml:space="preserve">Esther</t>
   </si>
   <si>
-    <t xml:space="preserve">PENDARIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esther.pendaries@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">EPE</t>
   </si>
   <si>
     <t xml:space="preserve">PELADAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Eric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eric.peladan@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">FG</t>
   </si>
   <si>
     <t xml:space="preserve">Florian</t>
   </si>
   <si>
-    <t xml:space="preserve">GALINIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galinierflo@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">FMO</t>
   </si>
   <si>
     <t xml:space="preserve">Fabien</t>
   </si>
   <si>
-    <t xml:space="preserve">MORALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fmtlse31@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">FP</t>
   </si>
   <si>
     <t xml:space="preserve">Fabrice</t>
   </si>
   <si>
-    <t xml:space="preserve">PELLEAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabrice.pelleau@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRJ</t>
   </si>
   <si>
     <t xml:space="preserve">ROMAN-JIMENEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Geoffrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geoffrey.romanjimenez@univ-nantes.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC</t>
   </si>
   <si>
     <t xml:space="preserve">Isabelle</t>
   </si>
   <si>
-    <t xml:space="preserve">CLAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isabelle.clavel@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">IO</t>
   </si>
   <si>
     <t xml:space="preserve">Iulian</t>
   </si>
   <si>
-    <t xml:space="preserve">OBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iulian.ober@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">JBS</t>
   </si>
   <si>
     <t xml:space="preserve">Jean-Baptiste</t>
   </si>
   <si>
-    <t xml:space="preserve">SAUDAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saudan@hpe.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">JC</t>
   </si>
   <si>
     <t xml:space="preserve">Jérôme</t>
   </si>
   <si>
-    <t xml:space="preserve">COURTINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerome.Courtine@ac-toulouse.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">JD</t>
   </si>
   <si>
     <t xml:space="preserve">Jérôme </t>
   </si>
   <si>
-    <t xml:space="preserve">DJEBARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jerome.djebari@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">JL</t>
   </si>
   <si>
-    <t xml:space="preserve">LOPUSNIAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jerome.lopusniac@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">JMB</t>
   </si>
   <si>
     <t xml:space="preserve">Jean-michel</t>
   </si>
   <si>
-    <t xml:space="preserve">BRUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jean-michel.bruel@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
     <t xml:space="preserve">Louis</t>
   </si>
   <si>
-    <t xml:space="preserve">CHANOUHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">louis.chanouha+iut@univ-toulouse.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD</t>
   </si>
   <si>
     <t xml:space="preserve">Laurent</t>
   </si>
   <si>
-    <t xml:space="preserve">DEMAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laurent.demay@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">LG</t>
   </si>
   <si>
     <t xml:space="preserve">Lucie</t>
   </si>
   <si>
-    <t xml:space="preserve">GUITERAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lucie.guiteras@laposte.net</t>
-  </si>
-  <si>
     <t xml:space="preserve">LN</t>
   </si>
   <si>
-    <t xml:space="preserve">NONNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laurent.nonne@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">LR</t>
   </si>
   <si>
     <t xml:space="preserve">Laurence</t>
   </si>
   <si>
-    <t xml:space="preserve">REDON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laurence.redon@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAC</t>
   </si>
   <si>
     <t xml:space="preserve">Marie-Ange</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTILLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marieange.castillon@free.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MD</t>
   </si>
   <si>
     <t xml:space="preserve">Mathieu</t>
   </si>
   <si>
-    <t xml:space="preserve">DARTIGUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mathieu@dartic.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MDM</t>
   </si>
   <si>
     <t xml:space="preserve">Marianne</t>
   </si>
   <si>
-    <t xml:space="preserve">DE MICHIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marianne.de-michiel@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFC</t>
   </si>
   <si>
     <t xml:space="preserve">Marie-Fançoise</t>
   </si>
   <si>
-    <t xml:space="preserve">CANUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marie-francoise.canut@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MJT</t>
   </si>
   <si>
     <t xml:space="preserve">Marie-Jo</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marie-jo.tragin@wanadoo.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MN</t>
   </si>
   <si>
     <t xml:space="preserve">Muriel</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muriel@adelante-solutions.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">NH</t>
   </si>
   <si>
     <t xml:space="preserve">Nabil</t>
   </si>
   <si>
-    <t xml:space="preserve">HANINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nabil.hanine@free.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">NJ</t>
   </si>
   <si>
     <t xml:space="preserve">Nadine</t>
   </si>
   <si>
-    <t xml:space="preserve">JESSEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baptiste@irit.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">NJO</t>
   </si>
   <si>
     <t xml:space="preserve">Nathalie</t>
   </si>
   <si>
-    <t xml:space="preserve">JOIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nathalie.joie@orange.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">OM</t>
   </si>
   <si>
     <t xml:space="preserve">Olivier</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o.martin@wanadoo.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">OR</t>
   </si>
   <si>
-    <t xml:space="preserve">ROQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olivier.roques@univ-toulouse.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">OT</t>
   </si>
   <si>
-    <t xml:space="preserve">TESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teste@irit.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">PC</t>
   </si>
   <si>
     <t xml:space="preserve">Philippe</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTERAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phcasteran@wanadoo.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">PDU</t>
   </si>
   <si>
     <t xml:space="preserve">Patrick</t>
   </si>
   <si>
-    <t xml:space="preserve">Duc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patrick_duc@yahoo.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">PG</t>
   </si>
   <si>
     <t xml:space="preserve">Pascal</t>
   </si>
   <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garciap@icloud.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRG</t>
   </si>
   <si>
     <t xml:space="preserve">Paul Renaud</t>
   </si>
   <si>
-    <t xml:space="preserve">GOUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paul.renaud-goud@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">PS</t>
   </si>
   <si>
     <t xml:space="preserve">Patricia</t>
   </si>
   <si>
-    <t xml:space="preserve">STOLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patricia.stolf@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSE</t>
   </si>
   <si>
     <t xml:space="preserve">Pablo</t>
   </si>
   <si>
-    <t xml:space="preserve">SEBAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pablo.seban@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSO</t>
   </si>
   <si>
-    <t xml:space="preserve">SOTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pascal.sotin@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB</t>
   </si>
   <si>
     <t xml:space="preserve">Rémi</t>
   </si>
   <si>
-    <t xml:space="preserve">BOULLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remi.boulle@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">RBA</t>
   </si>
   <si>
     <t xml:space="preserve">Ronan</t>
   </si>
   <si>
-    <t xml:space="preserve">BADUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronan.Baduel@irit.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">RL</t>
   </si>
   <si>
     <t xml:space="preserve">Rémy</t>
   </si>
   <si>
-    <t xml:space="preserve">LISCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remy.liscia@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">TA</t>
   </si>
   <si>
     <t xml:space="preserve">Thierry</t>
   </si>
   <si>
-    <t xml:space="preserve">ALHALEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thierry.alhalel@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">XB</t>
   </si>
   <si>
     <t xml:space="preserve">BARIL</t>
   </si>
   <si>
-    <t xml:space="preserve">Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xavier.baril@free.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">YA</t>
   </si>
   <si>
     <t xml:space="preserve">Yayah</t>
   </si>
   <si>
-    <t xml:space="preserve">AZOUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yahya.azzouz@univ-tlse2.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">YB</t>
   </si>
   <si>
     <t xml:space="preserve">Yasin</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouteldja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y.bouteldja@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">YF</t>
   </si>
   <si>
     <t xml:space="preserve">Yahn</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMANCZAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yahn.formanczak@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">YG</t>
   </si>
   <si>
     <t xml:space="preserve">Yannick</t>
   </si>
   <si>
-    <t xml:space="preserve">GUILLET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madame.guillet@orange.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGAD</t>
   </si>
   <si>
     <t xml:space="preserve">MG</t>
   </si>
   <si>
-    <t xml:space="preserve">AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monsieur.MGAD@truc.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">JS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIEURAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j.s@u.com</t>
   </si>
   <si>
     <t xml:space="preserve">Liste Salles</t>
@@ -880,9 +538,6 @@
   </si>
   <si>
     <t xml:space="preserve">TP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Amphi3</t>
@@ -1925,6 +1580,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1932,10 +1591,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2112,8 +1767,8 @@
   </sheetPr>
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E61" activeCellId="0" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2198,14 +1853,14 @@
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="G3" s="9" t="str">
         <f aca="false">IF(Intervenants!D3="Vacataire",Intervenants!A3,"")</f>
         <v/>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,1527 +1871,1527 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="str">
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="str">
         <f aca="false">IF(Intervenants!D4="Vacataire",Intervenants!A4,"")</f>
         <v>AB</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="str">
         <f aca="false">IF(Intervenants!D5="Vacataire",Intervenants!A5,"")</f>
         <v>AL</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="8" t="str">
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="str">
         <f aca="false">IF(Intervenants!D6="Vacataire",Intervenants!A6,"")</f>
         <v/>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>20</v>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="str">
         <f aca="false">IF(Intervenants!D7="Vacataire",Intervenants!A7,"")</f>
         <v>CCL</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>20</v>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="str">
         <f aca="false">IF(Intervenants!D8="Vacataire",Intervenants!A8,"")</f>
         <v>CDE</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>20</v>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9" t="str">
         <f aca="false">IF(Intervenants!D9="Vacataire",Intervenants!A9,"")</f>
         <v>CDU</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
+      <c r="H9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9" t="str">
         <f aca="false">IF(Intervenants!D10="Vacataire",Intervenants!A10,"")</f>
         <v>CLA</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>20</v>
+      <c r="H10" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9" t="str">
         <f aca="false">IF(Intervenants!D11="Vacataire",Intervenants!A11,"")</f>
         <v>CMG</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>20</v>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="str">
         <f aca="false">IF(Intervenants!D12="Vacataire",Intervenants!A12,"")</f>
         <v>EA</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>20</v>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="8" t="str">
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="str">
         <f aca="false">IF(Intervenants!D13="Vacataire",Intervenants!A13,"")</f>
         <v/>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>20</v>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9" t="str">
         <f aca="false">IF(Intervenants!D14="Vacataire",Intervenants!A14,"")</f>
         <v>EPE</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>20</v>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="str">
         <f aca="false">IF(Intervenants!D15="Vacataire",Intervenants!A15,"")</f>
         <v>FG</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>20</v>
+      <c r="H15" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9" t="str">
         <f aca="false">IF(Intervenants!D16="Vacataire",Intervenants!A16,"")</f>
         <v>FMO</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>20</v>
+      <c r="H16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="8" t="str">
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9" t="str">
         <f aca="false">IF(Intervenants!D17="Vacataire",Intervenants!A17,"")</f>
         <v/>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>20</v>
+      <c r="H17" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="9" t="str">
         <f aca="false">IF(Intervenants!D18="Vacataire",Intervenants!A18,"")</f>
         <v>GRJ</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>20</v>
+      <c r="H18" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="8" t="str">
+      <c r="E19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9" t="str">
         <f aca="false">IF(Intervenants!D19="Vacataire",Intervenants!A19,"")</f>
         <v/>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>20</v>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="8" t="str">
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="9" t="str">
         <f aca="false">IF(Intervenants!D20="Vacataire",Intervenants!A20,"")</f>
         <v/>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>20</v>
+      <c r="H20" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="9" t="str">
         <f aca="false">IF(Intervenants!D21="Vacataire",Intervenants!A21,"")</f>
         <v>JBS</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>20</v>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="9" t="str">
         <f aca="false">IF(Intervenants!D22="Vacataire",Intervenants!A22,"")</f>
         <v>JC</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>20</v>
+      <c r="H22" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="9" t="str">
         <f aca="false">IF(Intervenants!D23="Vacataire",Intervenants!A23,"")</f>
         <v>JD</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>20</v>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="9" t="str">
         <f aca="false">IF(Intervenants!D24="Vacataire",Intervenants!A24,"")</f>
         <v>JL</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>20</v>
+      <c r="H24" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="8" t="str">
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="9" t="str">
         <f aca="false">IF(Intervenants!D25="Vacataire",Intervenants!A25,"")</f>
         <v/>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>20</v>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="9" t="str">
         <f aca="false">IF(Intervenants!D26="Vacataire",Intervenants!A26,"")</f>
         <v>LC</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>20</v>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="8" t="str">
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="9" t="str">
         <f aca="false">IF(Intervenants!D27="Vacataire",Intervenants!A27,"")</f>
         <v/>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>20</v>
+      <c r="H27" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="9" t="str">
         <f aca="false">IF(Intervenants!D28="Vacataire",Intervenants!A28,"")</f>
         <v>LG</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>20</v>
+      <c r="H28" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="8" t="str">
+      <c r="E29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="9" t="str">
         <f aca="false">IF(Intervenants!D29="Vacataire",Intervenants!A29,"")</f>
         <v/>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>20</v>
+      <c r="H29" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="8" t="str">
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="9" t="str">
         <f aca="false">IF(Intervenants!D30="Vacataire",Intervenants!A30,"")</f>
         <v/>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>20</v>
+      <c r="H30" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="9" t="str">
         <f aca="false">IF(Intervenants!D31="Vacataire",Intervenants!A31,"")</f>
         <v>MAC</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>20</v>
+      <c r="H31" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="9" t="str">
         <f aca="false">IF(Intervenants!D32="Vacataire",Intervenants!A32,"")</f>
         <v>MD</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>20</v>
+      <c r="H32" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="8" t="str">
+      <c r="E33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9" t="str">
         <f aca="false">IF(Intervenants!D33="Vacataire",Intervenants!A33,"")</f>
         <v/>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>20</v>
+      <c r="H33" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="8" t="str">
+      <c r="E34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="9" t="str">
         <f aca="false">IF(Intervenants!D34="Vacataire",Intervenants!A34,"")</f>
         <v/>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>20</v>
+      <c r="H34" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="9" t="str">
         <f aca="false">IF(Intervenants!D35="Vacataire",Intervenants!A35,"")</f>
         <v>MJT</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>20</v>
+      <c r="H35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="9" t="str">
         <f aca="false">IF(Intervenants!D36="Vacataire",Intervenants!A36,"")</f>
         <v>MN</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>20</v>
+      <c r="H36" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="9" t="str">
         <f aca="false">IF(Intervenants!D37="Vacataire",Intervenants!A37,"")</f>
         <v>NH</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>20</v>
+      <c r="H37" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="9" t="str">
         <f aca="false">IF(Intervenants!D38="Vacataire",Intervenants!A38,"")</f>
         <v>NJ</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>20</v>
+      <c r="H38" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="9" t="str">
         <f aca="false">IF(Intervenants!D39="Vacataire",Intervenants!A39,"")</f>
         <v>NJO</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>20</v>
+      <c r="H39" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="9" t="str">
         <f aca="false">IF(Intervenants!D40="Vacataire",Intervenants!A40,"")</f>
         <v>OM</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>20</v>
+      <c r="H40" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="9" t="str">
         <f aca="false">IF(Intervenants!D41="Vacataire",Intervenants!A41,"")</f>
         <v>OR</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>20</v>
+      <c r="H41" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" s="8" t="str">
+      <c r="E42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="9" t="str">
         <f aca="false">IF(Intervenants!D42="Vacataire",Intervenants!A42,"")</f>
         <v/>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>20</v>
+      <c r="H42" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="9" t="str">
         <f aca="false">IF(Intervenants!D43="Vacataire",Intervenants!A43,"")</f>
         <v>PC</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>20</v>
+      <c r="H43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="9" t="str">
         <f aca="false">IF(Intervenants!D44="Vacataire",Intervenants!A44,"")</f>
         <v>PDU</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>20</v>
+      <c r="H44" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="9" t="str">
         <f aca="false">IF(Intervenants!D45="Vacataire",Intervenants!A45,"")</f>
         <v>PG</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>20</v>
+      <c r="H45" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" s="8" t="str">
+      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="9" t="str">
         <f aca="false">IF(Intervenants!D46="Vacataire",Intervenants!A46,"")</f>
         <v/>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>20</v>
+      <c r="H46" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G47" s="8" t="str">
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="9" t="str">
         <f aca="false">IF(Intervenants!D47="Vacataire",Intervenants!A47,"")</f>
         <v/>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>20</v>
+      <c r="H47" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="8" t="str">
+      <c r="E48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="9" t="str">
         <f aca="false">IF(Intervenants!D48="Vacataire",Intervenants!A48,"")</f>
         <v/>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>20</v>
+      <c r="H48" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="8" t="str">
+      <c r="E49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="9" t="str">
         <f aca="false">IF(Intervenants!D49="Vacataire",Intervenants!A49,"")</f>
         <v/>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>20</v>
+      <c r="H49" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="8" t="str">
+      <c r="E50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="9" t="str">
         <f aca="false">IF(Intervenants!D50="Vacataire",Intervenants!A50,"")</f>
         <v/>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>20</v>
+      <c r="H50" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="9" t="str">
         <f aca="false">IF(Intervenants!D51="Vacataire",Intervenants!A51,"")</f>
         <v>RBA</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>20</v>
+      <c r="H51" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="9" t="str">
         <f aca="false">IF(Intervenants!D52="Vacataire",Intervenants!A52,"")</f>
         <v>RL</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>20</v>
+      <c r="H52" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" s="8" t="str">
+      <c r="E53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="9" t="str">
         <f aca="false">IF(Intervenants!D53="Vacataire",Intervenants!A53,"")</f>
         <v/>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>20</v>
+      <c r="H53" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G54" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="9" t="str">
         <f aca="false">IF(Intervenants!D54="Vacataire",Intervenants!A54,"")</f>
         <v>XB</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>20</v>
+      <c r="H54" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G55" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="9" t="str">
         <f aca="false">IF(Intervenants!D55="Vacataire",Intervenants!A55,"")</f>
         <v>YA</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>20</v>
+      <c r="H55" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G56" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="9" t="str">
         <f aca="false">IF(Intervenants!D56="Vacataire",Intervenants!A56,"")</f>
         <v>YB</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>20</v>
+      <c r="H56" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G57" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="9" t="str">
         <f aca="false">IF(Intervenants!D57="Vacataire",Intervenants!A57,"")</f>
         <v>YF</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>20</v>
+      <c r="H57" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G58" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="9" t="str">
         <f aca="false">IF(Intervenants!D58="Vacataire",Intervenants!A58,"")</f>
         <v>YG</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>20</v>
+      <c r="H58" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G59" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="9" t="str">
         <f aca="false">IF(Intervenants!D59="Vacataire",Intervenants!A59,"")</f>
         <v>MGAD</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>20</v>
+      <c r="H59" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G60" s="8" t="str">
+      <c r="E60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="9" t="str">
         <f aca="false">IF(Intervenants!D60="Vacataire",Intervenants!A60,"")</f>
         <v/>
       </c>
@@ -3749,7 +3404,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
-      <c r="G61" s="8" t="str">
+      <c r="G61" s="9" t="str">
         <f aca="false">IF(Intervenants!D61="Vacataire",Intervenants!A61,"")</f>
         <v/>
       </c>
@@ -3762,7 +3417,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
-      <c r="G62" s="8" t="str">
+      <c r="G62" s="9" t="str">
         <f aca="false">IF(Intervenants!D62="Vacataire",Intervenants!A62,"")</f>
         <v/>
       </c>
@@ -3775,7 +3430,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="6"/>
-      <c r="G63" s="8" t="str">
+      <c r="G63" s="9" t="str">
         <f aca="false">IF(Intervenants!D63="Vacataire",Intervenants!A63,"")</f>
         <v/>
       </c>
@@ -3788,7 +3443,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
-      <c r="G64" s="8" t="str">
+      <c r="G64" s="9" t="str">
         <f aca="false">IF(Intervenants!D64="Vacataire",Intervenants!A64,"")</f>
         <v/>
       </c>
@@ -3801,7 +3456,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="6"/>
-      <c r="G65" s="8" t="str">
+      <c r="G65" s="9" t="str">
         <f aca="false">IF(Intervenants!D65="Vacataire",Intervenants!A65,"")</f>
         <v/>
       </c>
@@ -3814,7 +3469,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
-      <c r="G66" s="8" t="str">
+      <c r="G66" s="9" t="str">
         <f aca="false">IF(Intervenants!D66="Vacataire",Intervenants!A66,"")</f>
         <v/>
       </c>
@@ -3827,7 +3482,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
-      <c r="G67" s="8" t="str">
+      <c r="G67" s="9" t="str">
         <f aca="false">IF(Intervenants!D67="Vacataire",Intervenants!A67,"")</f>
         <v/>
       </c>
@@ -3840,7 +3495,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
-      <c r="G68" s="8" t="str">
+      <c r="G68" s="9" t="str">
         <f aca="false">IF(Intervenants!D68="Vacataire",Intervenants!A68,"")</f>
         <v/>
       </c>
@@ -3853,7 +3508,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
-      <c r="G69" s="8" t="str">
+      <c r="G69" s="9" t="str">
         <f aca="false">IF(Intervenants!D69="Vacataire",Intervenants!A69,"")</f>
         <v/>
       </c>
@@ -3866,7 +3521,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="6"/>
-      <c r="G70" s="8" t="str">
+      <c r="G70" s="9" t="str">
         <f aca="false">IF(Intervenants!D70="Vacataire",Intervenants!A70,"")</f>
         <v/>
       </c>
@@ -3879,7 +3534,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="6"/>
-      <c r="G71" s="8" t="str">
+      <c r="G71" s="9" t="str">
         <f aca="false">IF(Intervenants!D71="Vacataire",Intervenants!A71,"")</f>
         <v/>
       </c>
@@ -3892,7 +3547,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
       <c r="E72" s="6"/>
-      <c r="G72" s="8" t="str">
+      <c r="G72" s="9" t="str">
         <f aca="false">IF(Intervenants!D72="Vacataire",Intervenants!A72,"")</f>
         <v/>
       </c>
@@ -3905,7 +3560,7 @@
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
       <c r="E73" s="6"/>
-      <c r="G73" s="8" t="str">
+      <c r="G73" s="9" t="str">
         <f aca="false">IF(Intervenants!D73="Vacataire",Intervenants!A73,"")</f>
         <v/>
       </c>
@@ -3918,7 +3573,7 @@
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
       <c r="E74" s="6"/>
-      <c r="G74" s="8" t="str">
+      <c r="G74" s="9" t="str">
         <f aca="false">IF(Intervenants!D74="Vacataire",Intervenants!A74,"")</f>
         <v/>
       </c>
@@ -3931,7 +3586,7 @@
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
       <c r="E75" s="6"/>
-      <c r="G75" s="8" t="str">
+      <c r="G75" s="9" t="str">
         <f aca="false">IF(Intervenants!D75="Vacataire",Intervenants!A75,"")</f>
         <v/>
       </c>
@@ -3944,7 +3599,7 @@
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
-      <c r="G76" s="8" t="str">
+      <c r="G76" s="9" t="str">
         <f aca="false">IF(Intervenants!D76="Vacataire",Intervenants!A76,"")</f>
         <v/>
       </c>
@@ -3957,7 +3612,7 @@
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
-      <c r="G77" s="8" t="str">
+      <c r="G77" s="9" t="str">
         <f aca="false">IF(Intervenants!D77="Vacataire",Intervenants!A77,"")</f>
         <v/>
       </c>
@@ -3970,7 +3625,7 @@
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
-      <c r="G78" s="8" t="str">
+      <c r="G78" s="9" t="str">
         <f aca="false">IF(Intervenants!D78="Vacataire",Intervenants!A78,"")</f>
         <v/>
       </c>
@@ -3983,7 +3638,7 @@
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
-      <c r="G79" s="8" t="str">
+      <c r="G79" s="9" t="str">
         <f aca="false">IF(Intervenants!D79="Vacataire",Intervenants!A79,"")</f>
         <v/>
       </c>
@@ -3996,7 +3651,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
       <c r="E80" s="6"/>
-      <c r="G80" s="8" t="str">
+      <c r="G80" s="9" t="str">
         <f aca="false">IF(Intervenants!D80="Vacataire",Intervenants!A80,"")</f>
         <v/>
       </c>
@@ -4009,7 +3664,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
       <c r="E81" s="6"/>
-      <c r="G81" s="8" t="str">
+      <c r="G81" s="9" t="str">
         <f aca="false">IF(Intervenants!D81="Vacataire",Intervenants!A81,"")</f>
         <v/>
       </c>
@@ -4022,7 +3677,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
       <c r="E82" s="6"/>
-      <c r="G82" s="8" t="str">
+      <c r="G82" s="9" t="str">
         <f aca="false">IF(Intervenants!D82="Vacataire",Intervenants!A82,"")</f>
         <v/>
       </c>
@@ -4035,7 +3690,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
       <c r="E83" s="6"/>
-      <c r="G83" s="8" t="str">
+      <c r="G83" s="9" t="str">
         <f aca="false">IF(Intervenants!D83="Vacataire",Intervenants!A83,"")</f>
         <v/>
       </c>
@@ -4048,7 +3703,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
-      <c r="G84" s="8" t="str">
+      <c r="G84" s="9" t="str">
         <f aca="false">IF(Intervenants!D84="Vacataire",Intervenants!A84,"")</f>
         <v/>
       </c>
@@ -4061,7 +3716,7 @@
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
-      <c r="G85" s="8" t="str">
+      <c r="G85" s="9" t="str">
         <f aca="false">IF(Intervenants!D85="Vacataire",Intervenants!A85,"")</f>
         <v/>
       </c>
@@ -4074,7 +3729,7 @@
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
-      <c r="G86" s="8" t="str">
+      <c r="G86" s="9" t="str">
         <f aca="false">IF(Intervenants!D86="Vacataire",Intervenants!A86,"")</f>
         <v/>
       </c>
@@ -4087,7 +3742,7 @@
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
-      <c r="G87" s="8" t="str">
+      <c r="G87" s="9" t="str">
         <f aca="false">IF(Intervenants!D87="Vacataire",Intervenants!A87,"")</f>
         <v/>
       </c>
@@ -4100,7 +3755,7 @@
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="6"/>
-      <c r="G88" s="8" t="str">
+      <c r="G88" s="9" t="str">
         <f aca="false">IF(Intervenants!D88="Vacataire",Intervenants!A88,"")</f>
         <v/>
       </c>
@@ -4113,7 +3768,7 @@
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
       <c r="E89" s="6"/>
-      <c r="G89" s="8" t="str">
+      <c r="G89" s="9" t="str">
         <f aca="false">IF(Intervenants!D89="Vacataire",Intervenants!A89,"")</f>
         <v/>
       </c>
@@ -4126,7 +3781,7 @@
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
       <c r="E90" s="6"/>
-      <c r="G90" s="8" t="str">
+      <c r="G90" s="9" t="str">
         <f aca="false">IF(Intervenants!D90="Vacataire",Intervenants!A90,"")</f>
         <v/>
       </c>
@@ -4139,7 +3794,7 @@
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="6"/>
-      <c r="G91" s="8" t="str">
+      <c r="G91" s="9" t="str">
         <f aca="false">IF(Intervenants!D91="Vacataire",Intervenants!A91,"")</f>
         <v/>
       </c>
@@ -4152,7 +3807,7 @@
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
       <c r="E92" s="6"/>
-      <c r="G92" s="8" t="str">
+      <c r="G92" s="9" t="str">
         <f aca="false">IF(Intervenants!D92="Vacataire",Intervenants!A92,"")</f>
         <v/>
       </c>
@@ -4165,7 +3820,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
       <c r="E93" s="6"/>
-      <c r="G93" s="8" t="str">
+      <c r="G93" s="9" t="str">
         <f aca="false">IF(Intervenants!D93="Vacataire",Intervenants!A93,"")</f>
         <v/>
       </c>
@@ -4178,7 +3833,7 @@
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
       <c r="E94" s="6"/>
-      <c r="G94" s="8" t="str">
+      <c r="G94" s="9" t="str">
         <f aca="false">IF(Intervenants!D94="Vacataire",Intervenants!A94,"")</f>
         <v/>
       </c>
@@ -4191,7 +3846,7 @@
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="6"/>
-      <c r="G95" s="8" t="str">
+      <c r="G95" s="9" t="str">
         <f aca="false">IF(Intervenants!D95="Vacataire",Intervenants!A95,"")</f>
         <v/>
       </c>
@@ -4222,8 +3877,64 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E59" r:id="rId1" display="monsieur.MGAD@truc.com"/>
-    <hyperlink ref="E60" r:id="rId2" display="j.s@u.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E4" r:id="rId2" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E5" r:id="rId3" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E6" r:id="rId4" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E7" r:id="rId5" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E8" r:id="rId6" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E9" r:id="rId7" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E10" r:id="rId8" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E11" r:id="rId9" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E12" r:id="rId10" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E13" r:id="rId11" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E14" r:id="rId12" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E15" r:id="rId13" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E16" r:id="rId14" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E17" r:id="rId15" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E18" r:id="rId16" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E19" r:id="rId17" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E20" r:id="rId18" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E21" r:id="rId19" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E22" r:id="rId20" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E23" r:id="rId21" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E24" r:id="rId22" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E25" r:id="rId23" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E26" r:id="rId24" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E27" r:id="rId25" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E28" r:id="rId26" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E29" r:id="rId27" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E30" r:id="rId28" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E31" r:id="rId29" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E32" r:id="rId30" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E33" r:id="rId31" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E34" r:id="rId32" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E35" r:id="rId33" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E36" r:id="rId34" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E37" r:id="rId35" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E38" r:id="rId36" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E39" r:id="rId37" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E40" r:id="rId38" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E41" r:id="rId39" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E42" r:id="rId40" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E43" r:id="rId41" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E44" r:id="rId42" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E45" r:id="rId43" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E46" r:id="rId44" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E47" r:id="rId45" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E48" r:id="rId46" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E49" r:id="rId47" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E50" r:id="rId48" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E51" r:id="rId49" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E52" r:id="rId50" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E53" r:id="rId51" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E54" r:id="rId52" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E55" r:id="rId53" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E56" r:id="rId54" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E57" r:id="rId55" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E58" r:id="rId56" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E59" r:id="rId57" display="mon_mail@mail.mail"/>
+    <hyperlink ref="E60" r:id="rId58" display="mon_mail@mail.mail"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4258,21 +3969,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4289,19 +4000,19 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -4320,23 +4031,23 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="E4" s="18" t="str">
         <f aca="false">Salles!B3</f>
         <v>B101-B102</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -4354,23 +4065,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="E5" s="18" t="str">
         <f aca="false">Salles!B4</f>
         <v>B104-B105</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -4388,33 +4099,33 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="B6" s="14"/>
       <c r="D6" s="17" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="E6" s="18" t="str">
         <f aca="false">Salles!B5</f>
         <v>1er Etage Bat B</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -4428,7 +4139,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="B7" s="14"/>
       <c r="E7" s="18" t="n">
@@ -4453,7 +4164,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="B8" s="14"/>
       <c r="E8" s="18" t="n">
@@ -4478,7 +4189,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="B9" s="14"/>
       <c r="E9" s="18" t="n">
@@ -4503,7 +4214,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="B10" s="14"/>
       <c r="E10" s="18" t="n">
@@ -4528,7 +4239,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="B11" s="14"/>
       <c r="E11" s="18" t="n">
@@ -4553,7 +4264,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="18" t="n">
@@ -4578,7 +4289,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="B13" s="14"/>
       <c r="E13" s="18" t="n">
@@ -4603,7 +4314,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="B14" s="14"/>
       <c r="E14" s="18" t="n">
@@ -4628,7 +4339,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="B15" s="14"/>
       <c r="E15" s="18" t="n">
@@ -4653,7 +4364,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="B16" s="14"/>
       <c r="E16" s="18" t="n">
@@ -4678,17 +4389,17 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="B17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="B18" s="14"/>
       <c r="D18" s="2" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -4702,17 +4413,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="B19" s="14"/>
       <c r="D19" s="15" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -4731,23 +4442,23 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="B20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -4764,29 +4475,29 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="B21" s="14"/>
       <c r="D21" s="17" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -4801,17 +4512,17 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="17" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -4830,26 +4541,26 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="B23" s="14"/>
       <c r="D23" s="17" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -4865,29 +4576,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="B24" s="14"/>
       <c r="E24" s="20" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -4903,16 +4614,16 @@
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="E25" s="20" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -4931,13 +4642,13 @@
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="E26" s="20" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -4957,16 +4668,16 @@
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -4985,10 +4696,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="E28" s="20" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -5009,10 +4720,10 @@
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="E29" s="20" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -5033,10 +4744,10 @@
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="E30" s="20" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -5057,10 +4768,10 @@
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="E31" s="20" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -5081,10 +4792,10 @@
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="E32" s="20" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -5347,73 +5058,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="M1" s="21" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="N1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="M2" s="22" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,26 +5132,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,20 +5159,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,17 +5180,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -5493,68 +5204,68 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="H10" s="21"/>
       <c r="M10" s="13"/>
@@ -5562,47 +5273,47 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>3</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="H12" s="13" t="n">
         <v>36</v>
@@ -5611,25 +5322,25 @@
         <v>5</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C13" s="26" t="n">
         <v>3</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="H13" s="13" t="n">
         <v>4</v>
@@ -5640,20 +5351,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="H14" s="13" t="n">
         <v>36</v>
@@ -5664,20 +5375,20 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C15" s="26" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="H15" s="13" t="n">
         <v>4</v>
@@ -5686,29 +5397,29 @@
         <v>26</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="M16" s="22" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,23 +5427,23 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="M17" s="13" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,23 +5451,23 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C18" s="26" t="n">
         <v>234</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="M18" s="13" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,26 +5475,26 @@
         <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C19" s="26" t="n">
         <v>234</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="M19" s="13" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,122 +5502,122 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>234</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="27" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="27" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="M26" s="13"/>
     </row>
@@ -5915,27 +5626,27 @@
         <v>234</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5681,7 @@
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -5988,7 +5699,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5997,1252 +5708,1252 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>396</v>
+        <v>281</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>400</v>
+        <v>285</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>401</v>
+        <v>286</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>402</v>
+        <v>287</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>409</v>
+        <v>294</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>411</v>
+        <v>296</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>412</v>
+        <v>297</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>413</v>
+        <v>298</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>422</v>
+        <v>307</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>425</v>
+        <v>310</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>433</v>
+        <v>318</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>434</v>
+        <v>319</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>439</v>
+        <v>324</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>441</v>
+        <v>326</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>449</v>
+        <v>334</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>452</v>
+        <v>337</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>458</v>
+        <v>343</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>459</v>
+        <v>344</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>460</v>
+        <v>345</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>461</v>
+        <v>346</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>462</v>
+        <v>347</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>466</v>
+        <v>351</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>468</v>
+        <v>353</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>474</v>
+        <v>359</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>475</v>
+        <v>360</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>476</v>
+        <v>361</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>481</v>
+        <v>366</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>484</v>
+        <v>369</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>491</v>
+        <v>376</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>492</v>
+        <v>377</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>493</v>
+        <v>378</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>494</v>
+        <v>379</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>496</v>
+        <v>381</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>498</v>
+        <v>383</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>502</v>
+        <v>387</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>503</v>
+        <v>388</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>504</v>
+        <v>389</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>505</v>
+        <v>390</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>506</v>
+        <v>391</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>507</v>
+        <v>392</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>508</v>
+        <v>393</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>509</v>
+        <v>394</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>510</v>
+        <v>395</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>509</v>
+        <v>394</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>510</v>
+        <v>395</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7306,7 +7017,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>396</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7317,19 +7028,19 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="L1" s="29" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="M1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>513</v>
+        <v>398</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -7339,7 +7050,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="L2" s="29" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="M2" s="29"/>
     </row>
@@ -7355,7 +7066,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="L3" s="31" t="s">
-        <v>517</v>
+        <v>402</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -7371,7 +7082,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="L4" s="29" t="s">
-        <v>518</v>
+        <v>403</v>
       </c>
       <c r="M4" s="29"/>
     </row>
@@ -7387,7 +7098,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="L5" s="29" t="s">
-        <v>519</v>
+        <v>404</v>
       </c>
       <c r="M5" s="29"/>
     </row>
@@ -7415,7 +7126,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="L7" s="32" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
@@ -7436,7 +7147,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="L8" s="21" t="s">
-        <v>520</v>
+        <v>405</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -7457,10 +7168,10 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="L9" s="21" t="s">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>522</v>
+        <v>407</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
@@ -7480,10 +7191,10 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="L10" s="21" t="s">
-        <v>523</v>
+        <v>408</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>524</v>
+        <v>409</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -7503,10 +7214,10 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="L11" s="21" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
@@ -7526,10 +7237,10 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="L12" s="21" t="s">
-        <v>527</v>
+        <v>412</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>528</v>
+        <v>413</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -7549,13 +7260,13 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="L13" s="4" t="s">
-        <v>513</v>
+        <v>398</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -7577,13 +7288,13 @@
         <v>90</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
@@ -7604,10 +7315,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
@@ -7629,13 +7340,13 @@
         <v>30</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>532</v>
+        <v>417</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>534</v>
+        <v>419</v>
       </c>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
@@ -7656,13 +7367,13 @@
         <v>45</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>535</v>
+        <v>420</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>536</v>
+        <v>421</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>537</v>
+        <v>422</v>
       </c>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -7859,10 +7570,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>539</v>
+        <v>424</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -7875,7 +7586,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -7889,10 +7600,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -7905,10 +7616,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -7921,10 +7632,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -7937,10 +7648,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -8133,22 +7844,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/FlOpEDT/misc/deploy_database/database_file_iut.xlsx
+++ b/FlOpEDT/misc/deploy_database/database_file_iut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
@@ -1767,21 +1767,21 @@
   </sheetPr>
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E61" activeCellId="0" sqref="E61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E61" activeCellId="1" sqref="B28 E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,7 +3938,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3953,18 +3953,18 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B28 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,7 +5017,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -5032,28 +5032,28 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,10 +5651,6 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B28" type="list">
-      <formula1>Modules!$M$3:$M$20</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:D28" type="list">
       <formula1>Groupes!$A$3:$A$28</formula1>
       <formula2>0</formula2>
@@ -5663,10 +5659,14 @@
       <formula1>Groupes!$M$17:$M$26</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B28" type="list">
+      <formula1>Groupes!$M$3:$M$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -5681,20 +5681,20 @@
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="B28 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,7 +6977,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -6992,27 +6992,27 @@
   </sheetPr>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O5" activeCellId="1" sqref="B28 O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="3.23979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +7543,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -7558,14 +7558,14 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="B28 E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7871,7 +7871,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/FlOpEDT/misc/deploy_database/database_file_iut.xlsx
+++ b/FlOpEDT/misc/deploy_database/database_file_iut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Modules" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Groupes" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Cours" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Paramètres" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="585">
   <si>
     <t xml:space="preserve">Liste intervenants</t>
   </si>
@@ -1768,14 +1769,57 @@
   <si>
     <t xml:space="preserve">TP240</t>
   </si>
+  <si>
+    <t xml:space="preserve">Horaires de fonctionnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jours ouvrables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début des cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimanche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin des cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début de la pause déjeuner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin de la pause déjeuner</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="HH:MM"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2018,7 +2062,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2171,6 +2215,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2250,7 +2314,7 @@
   </sheetPr>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9453,8 +9517,8 @@
   </sheetPr>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10136,4 +10200,129 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="42" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="42" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="42" t="n">
+        <v>0.520833333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B5" s="42" t="n">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="D2:J2" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>